--- a/data/trans_dic/P25_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece hipertensión/presión arterial alta</t>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>40,83%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41,76%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41,15%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>41,18%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>40,35%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>34,78%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>41,02%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>38,76%</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36,73%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>35,77%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,91; 40,3</t>
+          <t>24,37; 44,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 34,65</t>
+          <t>25,47; 38,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,12; 43,99</t>
+          <t>30,98; 44,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,97; 42,0</t>
+          <t>17,59; 37,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,33; 53,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,77; 45,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,65; 52,18</t>
+          <t>37,48; 55,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,05; 48,05</t>
+          <t>34,74; 47,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,15; 46,11</t>
+          <t>36,83; 47,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,94; 38,66</t>
+          <t>32,66; 50,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,66; 46,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,99; 43,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>33,92; 47,17</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>32,2; 41,4</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>35,88; 44,1</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>29,29; 42,69</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>16,92%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 16,64</t>
+          <t>13,57; 21,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,79</t>
+          <t>12,13; 19,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,14</t>
+          <t>12,05; 18,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,61; 19,38</t>
+          <t>12,06; 20,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,74; 22,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 17,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 20,04</t>
+          <t>15,85; 25,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 14,48</t>
+          <t>12,1; 18,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,38; 19,3</t>
+          <t>14,73; 21,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 16,82</t>
+          <t>14,13; 22,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 18,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,56; 16,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>15,85; 21,88</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,09; 17,87</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 18,62</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 20,03</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,67</t>
+          <t>10,08; 18,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,8; 17,63</t>
+          <t>9,58; 16,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,99</t>
+          <t>11,03; 17,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,71; 18,24</t>
+          <t>13,52; 23,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 11,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,75</t>
+          <t>3,85; 9,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 14,04</t>
+          <t>3,91; 8,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 14,04</t>
+          <t>5,51; 10,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,97</t>
+          <t>7,08; 14,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,97; 12,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,79; 12,65</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 11,16</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 12,69</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 17,0</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>23,4%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,27; 20,09</t>
+          <t>12,41; 19,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 20,09</t>
+          <t>12,96; 21,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,18; 21,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 23,54</t>
+          <t>19,04; 28,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 20,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,61; 24,11</t>
+          <t>20,57; 28,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,36; 24,3</t>
+          <t>17,53; 26,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,27; 21,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 19,43</t>
+          <t>18,61; 29,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,51; 21,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 23,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 23,03</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16,25; 22,4</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>19,83; 27,09</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,67%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,57%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15,63; 19,96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,55; 19,54</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 21,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18,0; 23,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 24,28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 20,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18,31; 22,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 24,26</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 21,51</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>16,73; 19,55</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>18,55; 21,66</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 22,95</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,84%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>119814</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>167723</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>275938</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>125663</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>191702</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>259368</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>373326</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>262746</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>311516</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>427091</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>649264</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>388409</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>82661; 151748</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>134368; 205280</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>225640; 321200</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>78717; 167912</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>156384; 230140</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>220694; 304142</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>329183; 421940</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>208557; 320799</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>256587; 356787</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>374443; 481343</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>582076; 715329</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>318092; 463605</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>163665</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>184714</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>239159</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>170188</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>198980</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>187263</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>265953</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>192773</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>362645</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>371977</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>505111</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>362961</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>126546; 203861</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>146078; 233284</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>194850; 291789</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>128741; 214518</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>157592; 254740</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>148698; 232075</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>221617; 323581</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>152134; 242618</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>305429; 421666</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>318449; 434904</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>444862; 581294</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>305630; 429607</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>97460</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>107801</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>152926</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>146382</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50014</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54118</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>88071</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>93944</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>147474</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>161919</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>240997</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>240326</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>72138; 129580</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81049; 138176</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>120367; 189532</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>111979; 190831</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29615; 75174</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36802; 78736</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>64134; 117457</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>63471; 131666</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>115615; 187791</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>127938; 199422</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>196650; 286014</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>188840; 293296</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>227678</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>143100</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>260711</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>341362</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>166773</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>223398</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>569039</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>309873</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>484109</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>180807; 281930</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>110910; 184758</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>209145; 313849</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>287334; 396543</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>133465; 200438</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>180481; 282909</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>501284; 657403</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>262854; 362279</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>410258; 560435</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>550.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>620.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>608617</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>603338</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>668023</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>702944</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>782058</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>667523</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>727349</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>772860</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1390675</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1270861</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1395372</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1475804</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>538361; 687650</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>533724; 670700</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>590394; 749975</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>619570; 800808</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>697260; 868594</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>594932; 738769</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>652254; 805919</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>682792; 869059</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1284203; 1510159</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1170918; 1368911</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1298610; 1515648</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1351191; 1612008</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
